--- a/sheetrm_10/spreadsheets/ParkingFees_3.xlsx
+++ b/sheetrm_10/spreadsheets/ParkingFees_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybxiyi/dev/sheetagent_release/sheetrm_10/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEA0578-D29B-3F48-9D9A-7A1306ED040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CEE1F-BCFB-774E-8CBC-3860CCA4A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="4440" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parking Charge Record" sheetId="1" r:id="rId1"/>
@@ -817,6 +817,9 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
+      <numFmt numFmtId="166" formatCode="0.00_ "/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -828,6 +831,10 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="0.00_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00_ "/>
     </dxf>
     <dxf>
       <font>
@@ -846,16 +853,19 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </font>
       <numFmt numFmtId="166" formatCode="0.00_ "/>
+      <alignment horizontal="general" vertical="bottom"/>
     </dxf>
     <dxf>
       <font>
@@ -876,6 +886,23 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="h&quot;h&quot;mm&quot;m&quot;ss&quot;s&quot;;@"/>
+      <alignment horizontal="general" vertical="bottom"/>
     </dxf>
     <dxf>
       <font>
@@ -904,6 +931,22 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -919,6 +962,23 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
@@ -952,6 +1012,22 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -967,6 +1043,23 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
@@ -996,6 +1089,22 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1020,20 +1129,13 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color indexed="8"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
@@ -1066,6 +1168,22 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1080,144 +1198,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00_ "/>
-      <alignment horizontal="general" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="h&quot;h&quot;mm&quot;m&quot;ss&quot;s&quot;;@"/>
-      <alignment horizontal="general" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
@@ -1243,14 +1223,34 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color indexed="8"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1266,28 +1266,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A1:L550" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A1:L550" totalsRowShown="0" dataDxfId="24">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="License Plate Number" dataDxfId="12" totalsRowDxfId="24" dataCellStyle="常规_Sheet1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vehicle Model" dataDxfId="11" totalsRowDxfId="23" dataCellStyle="常规_Sheet1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vehicle Color" dataDxfId="10" totalsRowDxfId="22" dataCellStyle="常规_Sheet1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fee Standard" dataDxfId="9" totalsRowDxfId="21" dataCellStyle="常规_Sheet1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="License Plate Number" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="常规_Sheet1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vehicle Model" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="常规_Sheet1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Vehicle Color" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="常规_Sheet1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fee Standard" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="常规_Sheet1">
       <calculatedColumnFormula>VLOOKUP(B2,'Charging Standards'!$A$1:$B$4,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Entry Date" dataDxfId="8" totalsRowDxfId="20" dataCellStyle="常规_Sheet1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Entry Time" dataDxfId="7" totalsRowDxfId="19" dataCellStyle="常规_Sheet1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Exit Date" dataDxfId="6" totalsRowDxfId="18" dataCellStyle="常规_Sheet1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Exit Time" dataDxfId="5" totalsRowDxfId="17" dataCellStyle="常规_Sheet1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Parking Duration" dataDxfId="4" totalsRowDxfId="16" dataCellStyle="常规_Sheet1">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Entry Date" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="常规_Sheet1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Entry Time" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="常规_Sheet1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Exit Date" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="常规_Sheet1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Exit Time" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="常规_Sheet1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Parking Duration" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="常规_Sheet1">
       <calculatedColumnFormula>G2-E2+H2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fee Amount" dataDxfId="3" totalsRowDxfId="15" dataCellStyle="常规_Sheet1">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fee Amount" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="常规_Sheet1">
       <calculatedColumnFormula>ROUNDUP(I2*24*60/15,0)*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Projected Fee Amount" dataDxfId="2" totalsRowDxfId="14">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Projected Fee Amount" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>ROUNDDOWN(I2*24*60/15,0)*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Difference" dataDxfId="1" totalsRowDxfId="13">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Difference" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>K2-J2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1584,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
